--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Il10-Il10rb.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Il10-Il10rb.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>Il10rb</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>3.44332131537333</v>
+        <v>0.5210416666666667</v>
       </c>
       <c r="H2">
-        <v>3.44332131537333</v>
+        <v>1.563125</v>
       </c>
       <c r="I2">
-        <v>0.03529932981824811</v>
+        <v>0.005176831917831417</v>
       </c>
       <c r="J2">
-        <v>0.03529932981824811</v>
+        <v>0.005176831917831417</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>14.5047600196107</v>
+        <v>16.628124</v>
       </c>
       <c r="N2">
-        <v>14.5047600196107</v>
+        <v>49.88437200000001</v>
       </c>
       <c r="O2">
-        <v>0.03762918161872218</v>
+        <v>0.04087652497056827</v>
       </c>
       <c r="P2">
-        <v>0.03762918161872218</v>
+        <v>0.04087652497056826</v>
       </c>
       <c r="Q2">
-        <v>49.94454934990041</v>
+        <v>8.663945442500003</v>
       </c>
       <c r="R2">
-        <v>49.94454934990041</v>
+        <v>77.97550898250002</v>
       </c>
       <c r="S2">
-        <v>0.001328284892750034</v>
+        <v>0.0002116108991576707</v>
       </c>
       <c r="T2">
-        <v>0.001328284892750034</v>
+        <v>0.0002116108991576707</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>3.44332131537333</v>
+        <v>0.5210416666666667</v>
       </c>
       <c r="H3">
-        <v>3.44332131537333</v>
+        <v>1.563125</v>
       </c>
       <c r="I3">
-        <v>0.03529932981824811</v>
+        <v>0.005176831917831417</v>
       </c>
       <c r="J3">
-        <v>0.03529932981824811</v>
+        <v>0.005176831917831417</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>8.16243740908202</v>
+        <v>8.415293333333333</v>
       </c>
       <c r="N3">
-        <v>8.16243740908202</v>
+        <v>25.24588</v>
       </c>
       <c r="O3">
-        <v>0.02117552026386735</v>
+        <v>0.02068711708396309</v>
       </c>
       <c r="P3">
-        <v>0.02117552026386735</v>
+        <v>0.02068711708396308</v>
       </c>
       <c r="Q3">
-        <v>28.10589471609278</v>
+        <v>4.384718463888889</v>
       </c>
       <c r="R3">
-        <v>28.10589471609278</v>
+        <v>39.462466175</v>
       </c>
       <c r="S3">
-        <v>0.00074748167386725</v>
+        <v>0.0001070937280081757</v>
       </c>
       <c r="T3">
-        <v>0.00074748167386725</v>
+        <v>0.0001070937280081757</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>3.44332131537333</v>
+        <v>0.5210416666666667</v>
       </c>
       <c r="H4">
-        <v>3.44332131537333</v>
+        <v>1.563125</v>
       </c>
       <c r="I4">
-        <v>0.03529932981824811</v>
+        <v>0.005176831917831417</v>
       </c>
       <c r="J4">
-        <v>0.03529932981824811</v>
+        <v>0.005176831917831417</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>91.1580873058836</v>
+        <v>102.101612</v>
       </c>
       <c r="N4">
-        <v>91.1580873058836</v>
+        <v>306.304836</v>
       </c>
       <c r="O4">
-        <v>0.2364881748205919</v>
+        <v>0.250993984195287</v>
       </c>
       <c r="P4">
-        <v>0.2364881748205919</v>
+        <v>0.250993984195287</v>
       </c>
       <c r="Q4">
-        <v>313.886585089012</v>
+        <v>53.19919408583334</v>
       </c>
       <c r="R4">
-        <v>313.886585089012</v>
+        <v>478.7927467725</v>
       </c>
       <c r="S4">
-        <v>0.008347874081107591</v>
+        <v>0.001299353668565836</v>
       </c>
       <c r="T4">
-        <v>0.008347874081107591</v>
+        <v>0.001299353668565836</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>3.44332131537333</v>
+        <v>0.5210416666666667</v>
       </c>
       <c r="H5">
-        <v>3.44332131537333</v>
+        <v>1.563125</v>
       </c>
       <c r="I5">
-        <v>0.03529932981824811</v>
+        <v>0.005176831917831417</v>
       </c>
       <c r="J5">
-        <v>0.03529932981824811</v>
+        <v>0.005176831917831417</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>100.156990077207</v>
+        <v>101.0756123333333</v>
       </c>
       <c r="N5">
-        <v>100.156990077207</v>
+        <v>303.226837</v>
       </c>
       <c r="O5">
-        <v>0.2598337073418834</v>
+        <v>0.2484717934181257</v>
       </c>
       <c r="P5">
-        <v>0.2598337073418834</v>
+        <v>0.2484717934181256</v>
       </c>
       <c r="Q5">
-        <v>344.872698816482</v>
+        <v>52.66460550951389</v>
       </c>
       <c r="R5">
-        <v>344.872698816482</v>
+        <v>473.981449585625</v>
       </c>
       <c r="S5">
-        <v>0.009171955733359298</v>
+        <v>0.001286296710847767</v>
       </c>
       <c r="T5">
-        <v>0.009171955733359298</v>
+        <v>0.001286296710847767</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>3.44332131537333</v>
+        <v>0.5210416666666667</v>
       </c>
       <c r="H6">
-        <v>3.44332131537333</v>
+        <v>1.563125</v>
       </c>
       <c r="I6">
-        <v>0.03529932981824811</v>
+        <v>0.005176831917831417</v>
       </c>
       <c r="J6">
-        <v>0.03529932981824811</v>
+        <v>0.005176831917831417</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>167.111051237794</v>
+        <v>173.8965253333333</v>
       </c>
       <c r="N6">
-        <v>167.111051237794</v>
+        <v>521.689576</v>
       </c>
       <c r="O6">
-        <v>0.4335302403501131</v>
+        <v>0.4274857259954915</v>
       </c>
       <c r="P6">
-        <v>0.4335302403501131</v>
+        <v>0.4274857259954915</v>
       </c>
       <c r="Q6">
-        <v>575.4170447615408</v>
+        <v>90.60733538722224</v>
       </c>
       <c r="R6">
-        <v>575.4170447615408</v>
+        <v>815.4660184850001</v>
       </c>
       <c r="S6">
-        <v>0.01530332694030302</v>
+        <v>0.002213021750750796</v>
       </c>
       <c r="T6">
-        <v>0.01530332694030302</v>
+        <v>0.002213021750750796</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>3.44332131537333</v>
+        <v>0.5210416666666667</v>
       </c>
       <c r="H7">
-        <v>3.44332131537333</v>
+        <v>1.563125</v>
       </c>
       <c r="I7">
-        <v>0.03529932981824811</v>
+        <v>0.005176831917831417</v>
       </c>
       <c r="J7">
-        <v>0.03529932981824811</v>
+        <v>0.005176831917831417</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.37240548240858</v>
+        <v>4.671913333333333</v>
       </c>
       <c r="N7">
-        <v>4.37240548240858</v>
+        <v>14.01574</v>
       </c>
       <c r="O7">
-        <v>0.01134317560482224</v>
+        <v>0.01148485433656441</v>
       </c>
       <c r="P7">
-        <v>0.01134317560482224</v>
+        <v>0.01148485433656441</v>
       </c>
       <c r="Q7">
-        <v>15.05559699703267</v>
+        <v>2.434261509722222</v>
       </c>
       <c r="R7">
-        <v>15.05559699703267</v>
+        <v>21.9083535875</v>
       </c>
       <c r="S7">
-        <v>0.0004004064968609262</v>
+        <v>5.945516050117122E-05</v>
       </c>
       <c r="T7">
-        <v>0.0004004064968609262</v>
+        <v>5.945516050117123E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>13.086028286813</v>
+        <v>3.495361333333333</v>
       </c>
       <c r="H8">
-        <v>13.086028286813</v>
+        <v>10.486084</v>
       </c>
       <c r="I8">
-        <v>0.1341518801759148</v>
+        <v>0.0347283130551052</v>
       </c>
       <c r="J8">
-        <v>0.1341518801759148</v>
+        <v>0.03472831305510521</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>14.5047600196107</v>
+        <v>16.628124</v>
       </c>
       <c r="N8">
-        <v>14.5047600196107</v>
+        <v>49.88437200000001</v>
       </c>
       <c r="O8">
-        <v>0.03762918161872218</v>
+        <v>0.04087652497056827</v>
       </c>
       <c r="P8">
-        <v>0.03762918161872218</v>
+        <v>0.04087652497056826</v>
       </c>
       <c r="Q8">
-        <v>189.8096999100599</v>
+        <v>58.121301675472</v>
       </c>
       <c r="R8">
-        <v>189.8096999100599</v>
+        <v>523.0917150792479</v>
       </c>
       <c r="S8">
-        <v>0.005048025463632554</v>
+        <v>0.00141957275578272</v>
       </c>
       <c r="T8">
-        <v>0.005048025463632554</v>
+        <v>0.00141957275578272</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>13.086028286813</v>
+        <v>3.495361333333333</v>
       </c>
       <c r="H9">
-        <v>13.086028286813</v>
+        <v>10.486084</v>
       </c>
       <c r="I9">
-        <v>0.1341518801759148</v>
+        <v>0.0347283130551052</v>
       </c>
       <c r="J9">
-        <v>0.1341518801759148</v>
+        <v>0.03472831305510521</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>8.16243740908202</v>
+        <v>8.415293333333333</v>
       </c>
       <c r="N9">
-        <v>8.16243740908202</v>
+        <v>25.24588</v>
       </c>
       <c r="O9">
-        <v>0.02117552026386735</v>
+        <v>0.02068711708396309</v>
       </c>
       <c r="P9">
-        <v>0.02117552026386735</v>
+        <v>0.02068711708396308</v>
       </c>
       <c r="Q9">
-        <v>106.8138868245879</v>
+        <v>29.4144909259911</v>
       </c>
       <c r="R9">
-        <v>106.8138868245879</v>
+        <v>264.7304183339199</v>
       </c>
       <c r="S9">
-        <v>0.002840735857100989</v>
+        <v>0.0007184286782994852</v>
       </c>
       <c r="T9">
-        <v>0.002840735857100989</v>
+        <v>0.0007184286782994852</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>13.086028286813</v>
+        <v>3.495361333333333</v>
       </c>
       <c r="H10">
-        <v>13.086028286813</v>
+        <v>10.486084</v>
       </c>
       <c r="I10">
-        <v>0.1341518801759148</v>
+        <v>0.0347283130551052</v>
       </c>
       <c r="J10">
-        <v>0.1341518801759148</v>
+        <v>0.03472831305510521</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>91.1580873058836</v>
+        <v>102.101612</v>
       </c>
       <c r="N10">
-        <v>91.1580873058836</v>
+        <v>306.304836</v>
       </c>
       <c r="O10">
-        <v>0.2364881748205919</v>
+        <v>0.250993984195287</v>
       </c>
       <c r="P10">
-        <v>0.2364881748205919</v>
+        <v>0.250993984195287</v>
       </c>
       <c r="Q10">
-        <v>1192.897309056562</v>
+        <v>356.8820266558026</v>
       </c>
       <c r="R10">
-        <v>1192.897309056562</v>
+        <v>3211.938239902224</v>
       </c>
       <c r="S10">
-        <v>0.03172533329155283</v>
+        <v>0.008716597658082055</v>
       </c>
       <c r="T10">
-        <v>0.03172533329155283</v>
+        <v>0.008716597658082057</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>13.086028286813</v>
+        <v>3.495361333333333</v>
       </c>
       <c r="H11">
-        <v>13.086028286813</v>
+        <v>10.486084</v>
       </c>
       <c r="I11">
-        <v>0.1341518801759148</v>
+        <v>0.0347283130551052</v>
       </c>
       <c r="J11">
-        <v>0.1341518801759148</v>
+        <v>0.03472831305510521</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>100.156990077207</v>
+        <v>101.0756123333333</v>
       </c>
       <c r="N11">
-        <v>100.156990077207</v>
+        <v>303.226837</v>
       </c>
       <c r="O11">
-        <v>0.2598337073418834</v>
+        <v>0.2484717934181257</v>
       </c>
       <c r="P11">
-        <v>0.2598337073418834</v>
+        <v>0.2484717934181256</v>
       </c>
       <c r="Q11">
-        <v>1310.65720527238</v>
+        <v>353.295787092923</v>
       </c>
       <c r="R11">
-        <v>1310.65720527238</v>
+        <v>3179.662083836307</v>
       </c>
       <c r="S11">
-        <v>0.03485718037299206</v>
+        <v>0.008629006227188096</v>
       </c>
       <c r="T11">
-        <v>0.03485718037299206</v>
+        <v>0.008629006227188098</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>13.086028286813</v>
+        <v>3.495361333333333</v>
       </c>
       <c r="H12">
-        <v>13.086028286813</v>
+        <v>10.486084</v>
       </c>
       <c r="I12">
-        <v>0.1341518801759148</v>
+        <v>0.0347283130551052</v>
       </c>
       <c r="J12">
-        <v>0.1341518801759148</v>
+        <v>0.03472831305510521</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>167.111051237794</v>
+        <v>173.8965253333333</v>
       </c>
       <c r="N12">
-        <v>167.111051237794</v>
+        <v>521.689576</v>
       </c>
       <c r="O12">
-        <v>0.4335302403501131</v>
+        <v>0.4274857259954915</v>
       </c>
       <c r="P12">
-        <v>0.4335302403501131</v>
+        <v>0.4274857259954915</v>
       </c>
       <c r="Q12">
-        <v>2186.819943536829</v>
+        <v>607.8311906511536</v>
       </c>
       <c r="R12">
-        <v>2186.819943536829</v>
+        <v>5470.480715860383</v>
       </c>
       <c r="S12">
-        <v>0.05815889685608391</v>
+        <v>0.01484585811896035</v>
       </c>
       <c r="T12">
-        <v>0.05815889685608391</v>
+        <v>0.01484585811896036</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>24</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>13.086028286813</v>
+        <v>3.495361333333333</v>
       </c>
       <c r="H13">
-        <v>13.086028286813</v>
+        <v>10.486084</v>
       </c>
       <c r="I13">
-        <v>0.1341518801759148</v>
+        <v>0.0347283130551052</v>
       </c>
       <c r="J13">
-        <v>0.1341518801759148</v>
+        <v>0.03472831305510521</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>4.37240548240858</v>
+        <v>4.671913333333333</v>
       </c>
       <c r="N13">
-        <v>4.37240548240858</v>
+        <v>14.01574</v>
       </c>
       <c r="O13">
-        <v>0.01134317560482224</v>
+        <v>0.01148485433656441</v>
       </c>
       <c r="P13">
-        <v>0.01134317560482224</v>
+        <v>0.01148485433656441</v>
       </c>
       <c r="Q13">
-        <v>57.21742182421492</v>
+        <v>16.33002521801778</v>
       </c>
       <c r="R13">
-        <v>57.21742182421492</v>
+        <v>146.97022696216</v>
       </c>
       <c r="S13">
-        <v>0.001521708334552473</v>
+        <v>0.0003988496167924915</v>
       </c>
       <c r="T13">
-        <v>0.001521708334552473</v>
+        <v>0.0003988496167924916</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>17.2979411696317</v>
+        <v>14.058253</v>
       </c>
       <c r="H14">
-        <v>17.2979411696317</v>
+        <v>42.174759</v>
       </c>
       <c r="I14">
-        <v>0.1773304535354636</v>
+        <v>0.1396763781003104</v>
       </c>
       <c r="J14">
-        <v>0.1773304535354636</v>
+        <v>0.1396763781003105</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>14.5047600196107</v>
+        <v>16.628124</v>
       </c>
       <c r="N14">
-        <v>14.5047600196107</v>
+        <v>49.88437200000001</v>
       </c>
       <c r="O14">
-        <v>0.03762918161872218</v>
+        <v>0.04087652497056827</v>
       </c>
       <c r="P14">
-        <v>0.03762918161872218</v>
+        <v>0.04087652497056826</v>
       </c>
       <c r="Q14">
-        <v>250.9024854988518</v>
+        <v>233.7623741073721</v>
       </c>
       <c r="R14">
-        <v>250.9024854988518</v>
+        <v>2103.861366966348</v>
       </c>
       <c r="S14">
-        <v>0.006672799842616334</v>
+        <v>0.005709484957215875</v>
       </c>
       <c r="T14">
-        <v>0.006672799842616334</v>
+        <v>0.005709484957215875</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>17.2979411696317</v>
+        <v>14.058253</v>
       </c>
       <c r="H15">
-        <v>17.2979411696317</v>
+        <v>42.174759</v>
       </c>
       <c r="I15">
-        <v>0.1773304535354636</v>
+        <v>0.1396763781003104</v>
       </c>
       <c r="J15">
-        <v>0.1773304535354636</v>
+        <v>0.1396763781003105</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>8.16243740908202</v>
+        <v>8.415293333333333</v>
       </c>
       <c r="N15">
-        <v>8.16243740908202</v>
+        <v>25.24588</v>
       </c>
       <c r="O15">
-        <v>0.02117552026386735</v>
+        <v>0.02068711708396309</v>
       </c>
       <c r="P15">
-        <v>0.02117552026386735</v>
+        <v>0.02068711708396308</v>
       </c>
       <c r="Q15">
-        <v>141.1933621031018</v>
+        <v>118.3043227492133</v>
       </c>
       <c r="R15">
-        <v>141.1933621031018</v>
+        <v>1064.73890474292</v>
       </c>
       <c r="S15">
-        <v>0.003755064612240998</v>
+        <v>0.00288950158762502</v>
       </c>
       <c r="T15">
-        <v>0.003755064612240998</v>
+        <v>0.00288950158762502</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>17.2979411696317</v>
+        <v>14.058253</v>
       </c>
       <c r="H16">
-        <v>17.2979411696317</v>
+        <v>42.174759</v>
       </c>
       <c r="I16">
-        <v>0.1773304535354636</v>
+        <v>0.1396763781003104</v>
       </c>
       <c r="J16">
-        <v>0.1773304535354636</v>
+        <v>0.1396763781003105</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>91.1580873058836</v>
+        <v>102.101612</v>
       </c>
       <c r="N16">
-        <v>91.1580873058836</v>
+        <v>306.304836</v>
       </c>
       <c r="O16">
-        <v>0.2364881748205919</v>
+        <v>0.250993984195287</v>
       </c>
       <c r="P16">
-        <v>0.2364881748205919</v>
+        <v>0.250993984195287</v>
       </c>
       <c r="Q16">
-        <v>1576.847231353325</v>
+        <v>1435.370293203836</v>
       </c>
       <c r="R16">
-        <v>1576.847231353325</v>
+        <v>12918.33263883452</v>
       </c>
       <c r="S16">
-        <v>0.04193655529670956</v>
+        <v>0.03505793063736425</v>
       </c>
       <c r="T16">
-        <v>0.04193655529670956</v>
+        <v>0.03505793063736426</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>17.2979411696317</v>
+        <v>14.058253</v>
       </c>
       <c r="H17">
-        <v>17.2979411696317</v>
+        <v>42.174759</v>
       </c>
       <c r="I17">
-        <v>0.1773304535354636</v>
+        <v>0.1396763781003104</v>
       </c>
       <c r="J17">
-        <v>0.1773304535354636</v>
+        <v>0.1396763781003105</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>100.156990077207</v>
+        <v>101.0756123333333</v>
       </c>
       <c r="N17">
-        <v>100.156990077207</v>
+        <v>303.226837</v>
       </c>
       <c r="O17">
-        <v>0.2598337073418834</v>
+        <v>0.2484717934181257</v>
       </c>
       <c r="P17">
-        <v>0.2598337073418834</v>
+        <v>0.2484717934181256</v>
       </c>
       <c r="Q17">
-        <v>1732.509722082913</v>
+        <v>1420.94653031192</v>
       </c>
       <c r="R17">
-        <v>1732.509722082913</v>
+        <v>12788.51877280728</v>
       </c>
       <c r="S17">
-        <v>0.04607642916673711</v>
+        <v>0.03470564016473235</v>
       </c>
       <c r="T17">
-        <v>0.04607642916673711</v>
+        <v>0.03470564016473235</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>17.2979411696317</v>
+        <v>14.058253</v>
       </c>
       <c r="H18">
-        <v>17.2979411696317</v>
+        <v>42.174759</v>
       </c>
       <c r="I18">
-        <v>0.1773304535354636</v>
+        <v>0.1396763781003104</v>
       </c>
       <c r="J18">
-        <v>0.1773304535354636</v>
+        <v>0.1396763781003105</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>167.111051237794</v>
+        <v>173.8965253333333</v>
       </c>
       <c r="N18">
-        <v>167.111051237794</v>
+        <v>521.689576</v>
       </c>
       <c r="O18">
-        <v>0.4335302403501131</v>
+        <v>0.4274857259954915</v>
       </c>
       <c r="P18">
-        <v>0.4335302403501131</v>
+        <v>0.4274857259954915</v>
       </c>
       <c r="Q18">
-        <v>2890.677133106669</v>
+        <v>2444.681348956909</v>
       </c>
       <c r="R18">
-        <v>2890.677133106669</v>
+        <v>22002.13214061219</v>
       </c>
       <c r="S18">
-        <v>0.0768781141426241</v>
+        <v>0.05970965789663198</v>
       </c>
       <c r="T18">
-        <v>0.0768781141426241</v>
+        <v>0.05970965789663199</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,61 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>24</v>
-      </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>17.2979411696317</v>
+        <v>14.058253</v>
       </c>
       <c r="H19">
-        <v>17.2979411696317</v>
+        <v>42.174759</v>
       </c>
       <c r="I19">
-        <v>0.1773304535354636</v>
+        <v>0.1396763781003104</v>
       </c>
       <c r="J19">
-        <v>0.1773304535354636</v>
+        <v>0.1396763781003105</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>4.37240548240858</v>
+        <v>4.671913333333333</v>
       </c>
       <c r="N19">
-        <v>4.37240548240858</v>
+        <v>14.01574</v>
       </c>
       <c r="O19">
-        <v>0.01134317560482224</v>
+        <v>0.01148485433656441</v>
       </c>
       <c r="P19">
-        <v>0.01134317560482224</v>
+        <v>0.01148485433656441</v>
       </c>
       <c r="Q19">
-        <v>75.63361280447873</v>
+        <v>65.67893963407333</v>
       </c>
       <c r="R19">
-        <v>75.63361280447873</v>
+        <v>591.1104567066601</v>
       </c>
       <c r="S19">
-        <v>0.002011490474535534</v>
+        <v>0.001604162856740961</v>
       </c>
       <c r="T19">
-        <v>0.002011490474535534</v>
+        <v>0.001604162856740962</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,61 +1644,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>62.9636522026086</v>
+        <v>17.35834133333333</v>
       </c>
       <c r="H20">
-        <v>62.9636522026086</v>
+        <v>52.075024</v>
       </c>
       <c r="I20">
-        <v>0.6454740995962992</v>
+        <v>0.1724645478544819</v>
       </c>
       <c r="J20">
-        <v>0.6454740995962992</v>
+        <v>0.1724645478544819</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>14.5047600196107</v>
+        <v>16.628124</v>
       </c>
       <c r="N20">
-        <v>14.5047600196107</v>
+        <v>49.88437200000001</v>
       </c>
       <c r="O20">
-        <v>0.03762918161872218</v>
+        <v>0.04087652497056827</v>
       </c>
       <c r="P20">
-        <v>0.03762918161872218</v>
+        <v>0.04087652497056826</v>
       </c>
       <c r="Q20">
-        <v>913.2726651570704</v>
+        <v>288.6366521249921</v>
       </c>
       <c r="R20">
-        <v>913.2726651570704</v>
+        <v>2597.729869124928</v>
       </c>
       <c r="S20">
-        <v>0.02428866212389031</v>
+        <v>0.007049751396911494</v>
       </c>
       <c r="T20">
-        <v>0.02428866212389031</v>
+        <v>0.007049751396911496</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,61 +1706,61 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>62.9636522026086</v>
+        <v>17.35834133333333</v>
       </c>
       <c r="H21">
-        <v>62.9636522026086</v>
+        <v>52.075024</v>
       </c>
       <c r="I21">
-        <v>0.6454740995962992</v>
+        <v>0.1724645478544819</v>
       </c>
       <c r="J21">
-        <v>0.6454740995962992</v>
+        <v>0.1724645478544819</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>8.16243740908202</v>
+        <v>8.415293333333333</v>
       </c>
       <c r="N21">
-        <v>8.16243740908202</v>
+        <v>25.24588</v>
       </c>
       <c r="O21">
-        <v>0.02117552026386735</v>
+        <v>0.02068711708396309</v>
       </c>
       <c r="P21">
-        <v>0.02117552026386735</v>
+        <v>0.02068711708396308</v>
       </c>
       <c r="Q21">
-        <v>513.936870151002</v>
+        <v>146.0755341001244</v>
       </c>
       <c r="R21">
-        <v>513.936870151002</v>
+        <v>1314.67980690112</v>
       </c>
       <c r="S21">
-        <v>0.01366824987580297</v>
+        <v>0.003567794294298422</v>
       </c>
       <c r="T21">
-        <v>0.01366824987580297</v>
+        <v>0.003567794294298422</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,61 +1768,61 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>62.9636522026086</v>
+        <v>17.35834133333333</v>
       </c>
       <c r="H22">
-        <v>62.9636522026086</v>
+        <v>52.075024</v>
       </c>
       <c r="I22">
-        <v>0.6454740995962992</v>
+        <v>0.1724645478544819</v>
       </c>
       <c r="J22">
-        <v>0.6454740995962992</v>
+        <v>0.1724645478544819</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>91.1580873058836</v>
+        <v>102.101612</v>
       </c>
       <c r="N22">
-        <v>91.1580873058836</v>
+        <v>306.304836</v>
       </c>
       <c r="O22">
-        <v>0.2364881748205919</v>
+        <v>0.250993984195287</v>
       </c>
       <c r="P22">
-        <v>0.2364881748205919</v>
+        <v>0.250993984195287</v>
       </c>
       <c r="Q22">
-        <v>5739.646104582685</v>
+        <v>1772.314631779563</v>
       </c>
       <c r="R22">
-        <v>5739.646104582685</v>
+        <v>15950.83168601606</v>
       </c>
       <c r="S22">
-        <v>0.1526469917074937</v>
+        <v>0.04328756399843514</v>
       </c>
       <c r="T22">
-        <v>0.1526469917074937</v>
+        <v>0.04328756399843516</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,61 +1830,61 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>62.9636522026086</v>
+        <v>17.35834133333333</v>
       </c>
       <c r="H23">
-        <v>62.9636522026086</v>
+        <v>52.075024</v>
       </c>
       <c r="I23">
-        <v>0.6454740995962992</v>
+        <v>0.1724645478544819</v>
       </c>
       <c r="J23">
-        <v>0.6454740995962992</v>
+        <v>0.1724645478544819</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>100.156990077207</v>
+        <v>101.0756123333333</v>
       </c>
       <c r="N23">
-        <v>100.156990077207</v>
+        <v>303.226837</v>
       </c>
       <c r="O23">
-        <v>0.2598337073418834</v>
+        <v>0.2484717934181257</v>
       </c>
       <c r="P23">
-        <v>0.2598337073418834</v>
+        <v>0.2484717934181256</v>
       </c>
       <c r="Q23">
-        <v>6306.249888881383</v>
+        <v>1754.504979357676</v>
       </c>
       <c r="R23">
-        <v>6306.249888881383</v>
+        <v>15790.54481421909</v>
       </c>
       <c r="S23">
-        <v>0.1677159282912705</v>
+        <v>0.04285257550644927</v>
       </c>
       <c r="T23">
-        <v>0.1677159282912705</v>
+        <v>0.04285257550644928</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,61 +1892,61 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>62.9636522026086</v>
+        <v>17.35834133333333</v>
       </c>
       <c r="H24">
-        <v>62.9636522026086</v>
+        <v>52.075024</v>
       </c>
       <c r="I24">
-        <v>0.6454740995962992</v>
+        <v>0.1724645478544819</v>
       </c>
       <c r="J24">
-        <v>0.6454740995962992</v>
+        <v>0.1724645478544819</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>167.111051237794</v>
+        <v>173.8965253333333</v>
       </c>
       <c r="N24">
-        <v>167.111051237794</v>
+        <v>521.689576</v>
       </c>
       <c r="O24">
-        <v>0.4335302403501131</v>
+        <v>0.4274857259954915</v>
       </c>
       <c r="P24">
-        <v>0.4335302403501131</v>
+        <v>0.4274857259954915</v>
       </c>
       <c r="Q24">
-        <v>10521.92210934877</v>
+        <v>3018.555243416647</v>
       </c>
       <c r="R24">
-        <v>10521.92210934877</v>
+        <v>27166.99719074982</v>
       </c>
       <c r="S24">
-        <v>0.2798325415377564</v>
+        <v>0.07372613244805737</v>
       </c>
       <c r="T24">
-        <v>0.2798325415377564</v>
+        <v>0.0737261324480574</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,61 +1954,61 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
         <v>25</v>
       </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>24</v>
-      </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>62.9636522026086</v>
+        <v>17.35834133333333</v>
       </c>
       <c r="H25">
-        <v>62.9636522026086</v>
+        <v>52.075024</v>
       </c>
       <c r="I25">
-        <v>0.6454740995962992</v>
+        <v>0.1724645478544819</v>
       </c>
       <c r="J25">
-        <v>0.6454740995962992</v>
+        <v>0.1724645478544819</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>4.37240548240858</v>
+        <v>4.671913333333333</v>
       </c>
       <c r="N25">
-        <v>4.37240548240858</v>
+        <v>14.01574</v>
       </c>
       <c r="O25">
-        <v>0.01134317560482224</v>
+        <v>0.01148485433656441</v>
       </c>
       <c r="P25">
-        <v>0.01134317560482224</v>
+        <v>0.01148485433656441</v>
       </c>
       <c r="Q25">
-        <v>275.3026180831529</v>
+        <v>81.09666631975111</v>
       </c>
       <c r="R25">
-        <v>275.3026180831529</v>
+        <v>729.8699968777601</v>
       </c>
       <c r="S25">
-        <v>0.007321726060085341</v>
+        <v>0.001980730210330167</v>
       </c>
       <c r="T25">
-        <v>0.007321726060085341</v>
+        <v>0.001980730210330168</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2016,61 +2016,61 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D26" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>0.7554221577888131</v>
+        <v>64.38968300000001</v>
       </c>
       <c r="H26">
-        <v>0.7554221577888131</v>
+        <v>193.169049</v>
       </c>
       <c r="I26">
-        <v>0.007744236874074245</v>
+        <v>0.6397464683888626</v>
       </c>
       <c r="J26">
-        <v>0.007744236874074245</v>
+        <v>0.6397464683888626</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>14.5047600196107</v>
+        <v>16.628124</v>
       </c>
       <c r="N26">
-        <v>14.5047600196107</v>
+        <v>49.88437200000001</v>
       </c>
       <c r="O26">
-        <v>0.03762918161872218</v>
+        <v>0.04087652497056827</v>
       </c>
       <c r="P26">
-        <v>0.03762918161872218</v>
+        <v>0.04087652497056826</v>
       </c>
       <c r="Q26">
-        <v>10.95721711222322</v>
+        <v>1070.679633244692</v>
       </c>
       <c r="R26">
-        <v>10.95721711222322</v>
+        <v>9636.11669920223</v>
       </c>
       <c r="S26">
-        <v>0.0002914092958329451</v>
+        <v>0.02615061248993021</v>
       </c>
       <c r="T26">
-        <v>0.0002914092958329451</v>
+        <v>0.0261506124899302</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2078,61 +2078,61 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D27" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>0.7554221577888131</v>
+        <v>64.38968300000001</v>
       </c>
       <c r="H27">
-        <v>0.7554221577888131</v>
+        <v>193.169049</v>
       </c>
       <c r="I27">
-        <v>0.007744236874074245</v>
+        <v>0.6397464683888626</v>
       </c>
       <c r="J27">
-        <v>0.007744236874074245</v>
+        <v>0.6397464683888626</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>8.16243740908202</v>
+        <v>8.415293333333333</v>
       </c>
       <c r="N27">
-        <v>8.16243740908202</v>
+        <v>25.24588</v>
       </c>
       <c r="O27">
-        <v>0.02117552026386735</v>
+        <v>0.02068711708396309</v>
       </c>
       <c r="P27">
-        <v>0.02117552026386735</v>
+        <v>0.02068711708396308</v>
       </c>
       <c r="Q27">
-        <v>6.166086080384868</v>
+        <v>541.8580700853466</v>
       </c>
       <c r="R27">
-        <v>6.166086080384868</v>
+        <v>4876.72263076812</v>
       </c>
       <c r="S27">
-        <v>0.000163988244855148</v>
+        <v>0.01323451009561229</v>
       </c>
       <c r="T27">
-        <v>0.000163988244855148</v>
+        <v>0.01323451009561229</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2140,61 +2140,61 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>0.7554221577888131</v>
+        <v>64.38968300000001</v>
       </c>
       <c r="H28">
-        <v>0.7554221577888131</v>
+        <v>193.169049</v>
       </c>
       <c r="I28">
-        <v>0.007744236874074245</v>
+        <v>0.6397464683888626</v>
       </c>
       <c r="J28">
-        <v>0.007744236874074245</v>
+        <v>0.6397464683888626</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>91.1580873058836</v>
+        <v>102.101612</v>
       </c>
       <c r="N28">
-        <v>91.1580873058836</v>
+        <v>306.304836</v>
       </c>
       <c r="O28">
-        <v>0.2364881748205919</v>
+        <v>0.250993984195287</v>
       </c>
       <c r="P28">
-        <v>0.2364881748205919</v>
+        <v>0.250993984195287</v>
       </c>
       <c r="Q28">
-        <v>68.8628390125116</v>
+        <v>6574.290430468996</v>
       </c>
       <c r="R28">
-        <v>68.8628390125116</v>
+        <v>59168.61387422097</v>
       </c>
       <c r="S28">
-        <v>0.001831420443728144</v>
+        <v>0.1605725149757849</v>
       </c>
       <c r="T28">
-        <v>0.001831420443728144</v>
+        <v>0.1605725149757849</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2202,61 +2202,61 @@
         <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C29" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D29" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>0.7554221577888131</v>
+        <v>64.38968300000001</v>
       </c>
       <c r="H29">
-        <v>0.7554221577888131</v>
+        <v>193.169049</v>
       </c>
       <c r="I29">
-        <v>0.007744236874074245</v>
+        <v>0.6397464683888626</v>
       </c>
       <c r="J29">
-        <v>0.007744236874074245</v>
+        <v>0.6397464683888626</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>100.156990077207</v>
+        <v>101.0756123333333</v>
       </c>
       <c r="N29">
-        <v>100.156990077207</v>
+        <v>303.226837</v>
       </c>
       <c r="O29">
-        <v>0.2598337073418834</v>
+        <v>0.2484717934181257</v>
       </c>
       <c r="P29">
-        <v>0.2598337073418834</v>
+        <v>0.2484717934181256</v>
       </c>
       <c r="Q29">
-        <v>75.66080956175645</v>
+        <v>6508.226637174223</v>
       </c>
       <c r="R29">
-        <v>75.66080956175645</v>
+        <v>58574.03973456801</v>
       </c>
       <c r="S29">
-        <v>0.002012213777524429</v>
+        <v>0.1589589523334929</v>
       </c>
       <c r="T29">
-        <v>0.002012213777524429</v>
+        <v>0.1589589523334929</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2264,61 +2264,61 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C30" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D30" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>0.7554221577888131</v>
+        <v>64.38968300000001</v>
       </c>
       <c r="H30">
-        <v>0.7554221577888131</v>
+        <v>193.169049</v>
       </c>
       <c r="I30">
-        <v>0.007744236874074245</v>
+        <v>0.6397464683888626</v>
       </c>
       <c r="J30">
-        <v>0.007744236874074245</v>
+        <v>0.6397464683888626</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>167.111051237794</v>
+        <v>173.8965253333333</v>
       </c>
       <c r="N30">
-        <v>167.111051237794</v>
+        <v>521.689576</v>
       </c>
       <c r="O30">
-        <v>0.4335302403501131</v>
+        <v>0.4274857259954915</v>
       </c>
       <c r="P30">
-        <v>0.4335302403501131</v>
+        <v>0.4274857259954915</v>
       </c>
       <c r="Q30">
-        <v>126.2393909164112</v>
+        <v>11197.1421410148</v>
       </c>
       <c r="R30">
-        <v>126.2393909164112</v>
+        <v>100774.2792691332</v>
       </c>
       <c r="S30">
-        <v>0.003357360873345616</v>
+        <v>0.2734824834922647</v>
       </c>
       <c r="T30">
-        <v>0.003357360873345616</v>
+        <v>0.2734824834922647</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2326,61 +2326,433 @@
         <v>24</v>
       </c>
       <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>25</v>
       </c>
-      <c r="C31" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>64.38968300000001</v>
+      </c>
+      <c r="H31">
+        <v>193.169049</v>
+      </c>
+      <c r="I31">
+        <v>0.6397464683888626</v>
+      </c>
+      <c r="J31">
+        <v>0.6397464683888626</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>4.671913333333333</v>
+      </c>
+      <c r="N31">
+        <v>14.01574</v>
+      </c>
+      <c r="O31">
+        <v>0.01148485433656441</v>
+      </c>
+      <c r="P31">
+        <v>0.01148485433656441</v>
+      </c>
+      <c r="Q31">
+        <v>300.8230185368067</v>
+      </c>
+      <c r="R31">
+        <v>2707.40716683126</v>
+      </c>
+      <c r="S31">
+        <v>0.007347395001777598</v>
+      </c>
+      <c r="T31">
+        <v>0.007347395001777598</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>0.8260706666666667</v>
+      </c>
+      <c r="H32">
+        <v>2.478212</v>
+      </c>
+      <c r="I32">
+        <v>0.008207460683408448</v>
+      </c>
+      <c r="J32">
+        <v>0.008207460683408449</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>16.628124</v>
+      </c>
+      <c r="N32">
+        <v>49.88437200000001</v>
+      </c>
+      <c r="O32">
+        <v>0.04087652497056827</v>
+      </c>
+      <c r="P32">
+        <v>0.04087652497056826</v>
+      </c>
+      <c r="Q32">
+        <v>13.736005478096</v>
+      </c>
+      <c r="R32">
+        <v>123.624049302864</v>
+      </c>
+      <c r="S32">
+        <v>0.0003354924715703027</v>
+      </c>
+      <c r="T32">
+        <v>0.0003354924715703027</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>0.8260706666666667</v>
+      </c>
+      <c r="H33">
+        <v>2.478212</v>
+      </c>
+      <c r="I33">
+        <v>0.008207460683408448</v>
+      </c>
+      <c r="J33">
+        <v>0.008207460683408449</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>8.415293333333333</v>
+      </c>
+      <c r="N33">
+        <v>25.24588</v>
+      </c>
+      <c r="O33">
+        <v>0.02068711708396309</v>
+      </c>
+      <c r="P33">
+        <v>0.02068711708396308</v>
+      </c>
+      <c r="Q33">
+        <v>6.951626974062222</v>
+      </c>
+      <c r="R33">
+        <v>62.56464276656</v>
+      </c>
+      <c r="S33">
+        <v>0.0001697887001196943</v>
+      </c>
+      <c r="T33">
+        <v>0.0001697887001196943</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>0.8260706666666667</v>
+      </c>
+      <c r="H34">
+        <v>2.478212</v>
+      </c>
+      <c r="I34">
+        <v>0.008207460683408448</v>
+      </c>
+      <c r="J34">
+        <v>0.008207460683408449</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>102.101612</v>
+      </c>
+      <c r="N34">
+        <v>306.304836</v>
+      </c>
+      <c r="O34">
+        <v>0.250993984195287</v>
+      </c>
+      <c r="P34">
+        <v>0.250993984195287</v>
+      </c>
+      <c r="Q34">
+        <v>84.34314669258134</v>
+      </c>
+      <c r="R34">
+        <v>759.088320233232</v>
+      </c>
+      <c r="S34">
+        <v>0.002060023257054859</v>
+      </c>
+      <c r="T34">
+        <v>0.00206002325705486</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>0.8260706666666667</v>
+      </c>
+      <c r="H35">
+        <v>2.478212</v>
+      </c>
+      <c r="I35">
+        <v>0.008207460683408448</v>
+      </c>
+      <c r="J35">
+        <v>0.008207460683408449</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>101.0756123333333</v>
+      </c>
+      <c r="N35">
+        <v>303.226837</v>
+      </c>
+      <c r="O35">
+        <v>0.2484717934181257</v>
+      </c>
+      <c r="P35">
+        <v>0.2484717934181256</v>
+      </c>
+      <c r="Q35">
+        <v>83.49559846393822</v>
+      </c>
+      <c r="R35">
+        <v>751.460386175444</v>
+      </c>
+      <c r="S35">
+        <v>0.002039322475415252</v>
+      </c>
+      <c r="T35">
+        <v>0.002039322475415252</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
         <v>24</v>
       </c>
-      <c r="E31">
-        <v>1</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31">
-        <v>0.7554221577888131</v>
-      </c>
-      <c r="H31">
-        <v>0.7554221577888131</v>
-      </c>
-      <c r="I31">
-        <v>0.007744236874074245</v>
-      </c>
-      <c r="J31">
-        <v>0.007744236874074245</v>
-      </c>
-      <c r="K31">
-        <v>1</v>
-      </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-      <c r="M31">
-        <v>4.37240548240858</v>
-      </c>
-      <c r="N31">
-        <v>4.37240548240858</v>
-      </c>
-      <c r="O31">
-        <v>0.01134317560482224</v>
-      </c>
-      <c r="P31">
-        <v>0.01134317560482224</v>
-      </c>
-      <c r="Q31">
-        <v>3.303011984248726</v>
-      </c>
-      <c r="R31">
-        <v>3.303011984248726</v>
-      </c>
-      <c r="S31">
-        <v>8.78442387879638E-05</v>
-      </c>
-      <c r="T31">
-        <v>8.78442387879638E-05</v>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>0.8260706666666667</v>
+      </c>
+      <c r="H36">
+        <v>2.478212</v>
+      </c>
+      <c r="I36">
+        <v>0.008207460683408448</v>
+      </c>
+      <c r="J36">
+        <v>0.008207460683408449</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>173.8965253333333</v>
+      </c>
+      <c r="N36">
+        <v>521.689576</v>
+      </c>
+      <c r="O36">
+        <v>0.4274857259954915</v>
+      </c>
+      <c r="P36">
+        <v>0.4274857259954915</v>
+      </c>
+      <c r="Q36">
+        <v>143.6508186131236</v>
+      </c>
+      <c r="R36">
+        <v>1292.857367518112</v>
+      </c>
+      <c r="S36">
+        <v>0.003508572288826313</v>
+      </c>
+      <c r="T36">
+        <v>0.003508572288826314</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>0.8260706666666667</v>
+      </c>
+      <c r="H37">
+        <v>2.478212</v>
+      </c>
+      <c r="I37">
+        <v>0.008207460683408448</v>
+      </c>
+      <c r="J37">
+        <v>0.008207460683408449</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>4.671913333333333</v>
+      </c>
+      <c r="N37">
+        <v>14.01574</v>
+      </c>
+      <c r="O37">
+        <v>0.01148485433656441</v>
+      </c>
+      <c r="P37">
+        <v>0.01148485433656441</v>
+      </c>
+      <c r="Q37">
+        <v>3.859330561875556</v>
+      </c>
+      <c r="R37">
+        <v>34.73397505688001</v>
+      </c>
+      <c r="S37">
+        <v>9.426149042202544E-05</v>
+      </c>
+      <c r="T37">
+        <v>9.426149042202546E-05</v>
       </c>
     </row>
   </sheetData>
